--- a/data/zillow_data_dictionary.xlsx
+++ b/data/zillow_data_dictionary.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="325">
   <si>
     <t>StoryTypeID</t>
   </si>
@@ -694,12 +694,6 @@
   </si>
   <si>
     <t>'fips'</t>
-  </si>
-  <si>
-    <t>'fireplacecnt'</t>
-  </si>
-  <si>
-    <t>'fireplaceflag'</t>
   </si>
   <si>
     <t>'fullbathcnt'</t>
@@ -1101,6 +1095,14 @@
   </si>
   <si>
     <t>含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireplacecnt'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireplaceflag'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1489,10 +1491,10 @@
         <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1506,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1520,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,13 +1530,13 @@
         <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C4">
         <v>752</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,13 +1544,13 @@
         <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1562,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,13 +1572,13 @@
         <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1584,13 +1586,13 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1604,12 +1606,12 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
         <v>173</v>
@@ -1618,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1632,7 +1634,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,7 +1645,7 @@
         <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,7 +1656,7 @@
         <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1662,10 +1664,10 @@
         <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1676,7 +1678,7 @@
         <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1684,10 +1686,10 @@
         <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1698,7 +1700,7 @@
         <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,7 +1711,7 @@
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1717,136 +1719,136 @@
         <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>218</v>
+      <c r="A20" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>219</v>
+      <c r="A21" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>182</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
         <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
         <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
         <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
         <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
         <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
         <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -1857,31 +1859,31 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>110</v>
@@ -1891,7 +1893,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>111</v>
@@ -1901,7 +1903,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>112</v>
@@ -1911,252 +1913,252 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s">
         <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s">
         <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s">
         <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B43" t="s">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B44" t="s">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B45" t="s">
         <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D46" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
         <v>177</v>
       </c>
       <c r="D47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
         <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B52" t="s">
         <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2168,7 +2170,7 @@
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data/zillow_data_dictionary.xlsx
+++ b/data/zillow_data_dictionary.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="359">
   <si>
     <t>StoryTypeID</t>
   </si>
@@ -645,9 +645,6 @@
     <t>'taxdelinquencyyear'</t>
   </si>
   <si>
-    <t>'airconditioningtypeid'</t>
-  </si>
-  <si>
     <t>'architecturalstyletypeid'</t>
   </si>
   <si>
@@ -669,9 +666,6 @@
     <t>'calculatedbathnbr'</t>
   </si>
   <si>
-    <t>'threequarterbathnbr'</t>
-  </si>
-  <si>
     <t>'finishedfloor1squarefeet'</t>
   </si>
   <si>
@@ -684,9 +678,6 @@
     <t>'finishedsquarefeet12'</t>
   </si>
   <si>
-    <t>'finishedsquarefeet13'</t>
-  </si>
-  <si>
     <t>'finishedsquarefeet15'</t>
   </si>
   <si>
@@ -738,9 +729,6 @@
     <t>'pooltypeid2'</t>
   </si>
   <si>
-    <t>'pooltypeid7'</t>
-  </si>
-  <si>
     <t>'propertycountylandusecode'</t>
   </si>
   <si>
@@ -778,12 +766,6 @@
   </si>
   <si>
     <t>'unitcnt'</t>
-  </si>
-  <si>
-    <t>'yardbuildingsqft17'</t>
-  </si>
-  <si>
-    <t>'yardbuildingsqft26'</t>
   </si>
   <si>
     <t>'yearbuilt'</t>
@@ -1103,6 +1085,166 @@
   </si>
   <si>
     <t>fireplaceflag'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yardbuildingsqft26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishedsquarefeet13'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threequarterbathnbr'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airconditioningtypeid'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pooltypeid7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aircon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_basement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_bathroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_bedroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_bathroom_calc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yardbuildingsqft17'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,13 +1325,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1470,20 +1614,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="55.875" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -1491,15 +1637,18 @@
         <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>98</v>
@@ -1508,12 +1657,18 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>176</v>
@@ -1521,41 +1676,56 @@
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C4">
         <v>752</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="E4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="E5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>184</v>
@@ -1564,40 +1734,52 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="E6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -1606,12 +1788,18 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="E9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>173</v>
@@ -1619,13 +1807,16 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>209</v>
+      <c r="E10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
@@ -1633,222 +1824,282 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
         <v>195</v>
       </c>
-      <c r="D13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="E14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
         <v>198</v>
       </c>
-      <c r="D15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>214</v>
+      <c r="E15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="E16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
         <v>199</v>
       </c>
-      <c r="D17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="D18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="E19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B21" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
         <v>103</v>
       </c>
-      <c r="D22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="E23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
         <v>179</v>
       </c>
-      <c r="D24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s">
         <v>178</v>
       </c>
-      <c r="D25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
         <v>104</v>
       </c>
-      <c r="D26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>283</v>
+      </c>
+      <c r="F27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
         <v>183</v>
       </c>
-      <c r="D28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="D30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -1856,312 +2107,387 @@
       <c r="C31">
         <v>2985217</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="3"/>
+      <c r="F34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>232</v>
+      <c r="E35" s="3"/>
+      <c r="F35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="3"/>
+      <c r="F36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
-      </c>
-      <c r="D37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="E37" t="s">
+        <v>291</v>
+      </c>
+      <c r="F37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s">
         <v>113</v>
       </c>
-      <c r="D38" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>292</v>
+      </c>
+      <c r="F38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="D39" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="E40" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
       </c>
-      <c r="D41" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
         <v>174</v>
       </c>
-      <c r="D42" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
         <v>115</v>
       </c>
-      <c r="D43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
         <v>116</v>
       </c>
-      <c r="D44" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
         <v>194</v>
       </c>
-      <c r="D45" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
-        <v>307</v>
-      </c>
-      <c r="D46" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="E46" t="s">
+        <v>302</v>
+      </c>
+      <c r="F46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
         <v>177</v>
       </c>
-      <c r="D47" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>303</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
         <v>175</v>
       </c>
-      <c r="D48" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
       </c>
-      <c r="D49" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>246</v>
+      <c r="E49" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>247</v>
+      <c r="E50" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s">
         <v>118</v>
       </c>
-      <c r="D52" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>339</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>340</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>200</v>
       </c>
@@ -2169,8 +2495,8 @@
         <v>197</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4" t="s">
-        <v>321</v>
+      <c r="E59" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/zillow_data_dictionary.xlsx
+++ b/data/zillow_data_dictionary.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="369">
   <si>
     <t>StoryTypeID</t>
   </si>
@@ -693,18 +693,12 @@
     <t>'garagecarcnt'</t>
   </si>
   <si>
-    <t>'garagetotalsqft'</t>
-  </si>
-  <si>
     <t>'hashottuborspa'</t>
   </si>
   <si>
     <t>'heatingorsystemtypeid'</t>
   </si>
   <si>
-    <t>'latitude'</t>
-  </si>
-  <si>
     <t>'longitude'</t>
   </si>
   <si>
@@ -768,9 +762,6 @@
     <t>'unitcnt'</t>
   </si>
   <si>
-    <t>'yearbuilt'</t>
-  </si>
-  <si>
     <t>'taxvaluedollarcnt'</t>
   </si>
   <si>
@@ -784,9 +775,6 @@
   </si>
   <si>
     <t>'assessmentyear'</t>
-  </si>
-  <si>
-    <t>'taxdelinquencyflag'</t>
   </si>
   <si>
     <t>decktypeid'</t>
@@ -1247,12 +1235,67 @@
     <t>yardbuildingsqft17'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxdelinquencyflag'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_finishedfloor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_calculatedfinished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garagetotalsqft'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yearbuilt'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1322,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1325,15 +1375,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1616,887 +1669,921 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="1">
+        <v>752</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4">
-        <v>752</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>328</v>
-      </c>
-      <c r="E6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" t="s">
-        <v>270</v>
-      </c>
-      <c r="E16" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F22" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F25" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2985217</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" t="s">
-        <v>281</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E37" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F26" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" t="s">
-        <v>283</v>
-      </c>
-      <c r="F27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" t="s">
-        <v>284</v>
-      </c>
-      <c r="F28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" t="s">
-        <v>285</v>
-      </c>
-      <c r="F29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>287</v>
-      </c>
-      <c r="F30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31">
-        <v>2985217</v>
-      </c>
-      <c r="F31" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" t="s">
-        <v>290</v>
-      </c>
-      <c r="E37" t="s">
-        <v>291</v>
-      </c>
-      <c r="F37" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>230</v>
-      </c>
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>231</v>
-      </c>
-      <c r="B39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" t="s">
-        <v>294</v>
-      </c>
-      <c r="E40" t="s">
-        <v>295</v>
-      </c>
-      <c r="F40" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>233</v>
-      </c>
-      <c r="B41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" t="s">
-        <v>296</v>
-      </c>
-      <c r="F41" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>234</v>
-      </c>
-      <c r="B42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" t="s">
-        <v>297</v>
-      </c>
-      <c r="F42" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>235</v>
-      </c>
-      <c r="B43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" t="s">
-        <v>299</v>
-      </c>
-      <c r="F44" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>237</v>
-      </c>
-      <c r="B45" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" t="s">
-        <v>300</v>
-      </c>
-      <c r="F45" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>238</v>
-      </c>
-      <c r="B46" t="s">
-        <v>301</v>
-      </c>
-      <c r="E46" t="s">
-        <v>302</v>
-      </c>
-      <c r="F46" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>239</v>
-      </c>
-      <c r="B47" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" t="s">
-        <v>303</v>
-      </c>
-      <c r="F47" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>240</v>
-      </c>
-      <c r="B48" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" t="s">
-        <v>304</v>
-      </c>
-      <c r="F48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>241</v>
-      </c>
-      <c r="B49" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" t="s">
-        <v>305</v>
-      </c>
-      <c r="F49" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B50" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>356</v>
+      <c r="C50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B51" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="E51" s="5" t="s">
+      <c r="C51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>242</v>
-      </c>
-      <c r="B52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F55" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" t="s">
+      <c r="F56" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E57" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" t="s">
-        <v>340</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="F57" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="E58" s="8" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" t="s">
-        <v>341</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="F58" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="E59" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" t="s">
-        <v>342</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>315</v>
+      <c r="F59" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
